--- a/OLE.xlsx
+++ b/OLE.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -441,9 +441,9 @@
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="41" customWidth="1" min="5" max="5"/>
+    <col width="43" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -483,15 +483,15 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>1C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mickey Mouse</t>
+          <t>Tang Chun Kit</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Champion in boys's A Grade Javelin</t>
+          <t>1st Runner-up in boys's C Grade 100m</t>
         </is>
       </c>
     </row>
@@ -509,29 +509,157 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Siu Man Kit</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>participant</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1st Runner-up in boys's C Grade High Jump</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Siu Man Kit</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>participant</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2nd Runner-up in boys's C Grade 100m</t>
+        </is>
+      </c>
+    </row>
+    <row r="7"/>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3C</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Lam King Sum</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>participant</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Champion in boys's C Grade 100m</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3C</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Lam King Sum</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>participant</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Champion in boys's C Grade High Jump</t>
+        </is>
+      </c>
+    </row>
+    <row r="10"/>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>5C</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Chan Tai Man</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>participant</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1st Runner-up in boys's A Grade 100m</t>
+        </is>
+      </c>
+    </row>
+    <row r="12"/>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>5D</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B13" t="n">
         <v>6</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Fung Ching</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>participant</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1st Runner-up in boys's A Grade Javelin</t>
-        </is>
-      </c>
-    </row>
-    <row r="6"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Champion in boys's A Grade 100m</t>
+        </is>
+      </c>
+    </row>
+    <row r="14"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>

--- a/OLE.xlsx
+++ b/OLE.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -560,15 +560,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3C</t>
+          <t>5C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Lam King Sum</t>
+          <t>Chan Tai Man</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,88 +578,37 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Champion in boys's C Grade 100m</t>
+          <t>1st Runner-up in boys's A Grade 100m</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3C</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Lam King Sum</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+    <row r="9"/>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>5D</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fung Ching</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>participant</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Champion in boys's C Grade High Jump</t>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Champion in boys's A Grade 100m</t>
         </is>
       </c>
     </row>
-    <row r="10"/>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>5C</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Chan Tai Man</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>participant</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1st Runner-up in boys's A Grade 100m</t>
-        </is>
-      </c>
-    </row>
-    <row r="12"/>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>5D</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Fung Ching</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>participant</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Champion in boys's A Grade 100m</t>
-        </is>
-      </c>
-    </row>
-    <row r="14"/>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
